--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_11_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_11_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1443286.897837619</v>
+        <v>-1446388.387058074</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11425554.87895573</v>
+        <v>11425554.87895574</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -668,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="G2" t="n">
-        <v>15.21022140383137</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>33.49204648445981</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>29.25497087519204</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>44.46519227902341</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -753,11 +753,11 @@
         <v>50.48273419507654</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>44.46519227902341</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -820,28 +820,28 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="R4" t="n">
-        <v>50.48273419507654</v>
+        <v>41.4216011981056</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>8.386866521745233</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>25.34580260830151</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>15.16194852731947</v>
       </c>
       <c r="H5" t="n">
-        <v>25.34580260830151</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,67 +981,67 @@
         <v>53.79631798062264</v>
       </c>
       <c r="E6" t="n">
+        <v>47.38379687733242</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>47.38379687733242</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
     </row>
     <row r="7">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.74224000600996</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>53.79631798062264</v>
+        <v>52.60630734092059</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>204.8862511871962</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="C8" t="n">
-        <v>255.0853779233022</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>255.0853779233022</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>255.0853779233022</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>208.8168428881979</v>
       </c>
     </row>
     <row r="9">
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,22 +1263,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>141.2100776290661</v>
       </c>
       <c r="U9" t="n">
-        <v>162.9335831616725</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>77.36415083921858</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>72.38603957224448</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>59.99336677896783</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.8176993212729</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>293.5424047128766</v>
       </c>
       <c r="I11" t="n">
-        <v>37.56645460153618</v>
+        <v>13.7708825381278</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>106.8172617436121</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.4625948704999</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.9791456276464</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.3401417007626</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.64865106568325</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>86.83403108082577</v>
       </c>
       <c r="S13" t="n">
-        <v>188.9558229281791</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.349572578447</v>
@@ -1585,16 +1585,16 @@
         <v>286.2092929711739</v>
       </c>
       <c r="V13" t="n">
-        <v>38.88349176398857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127566</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1658,7 +1658,7 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374736</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
@@ -1819,7 +1819,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>148.4939090185316</v>
+        <v>132.196729217715</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>131.6267707433221</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.338488358459</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>149.7016847493216</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>91.23885045891228</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5420528771669</v>
@@ -2257,7 +2257,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
         <v>181.338488358459</v>
@@ -2293,13 +2293,13 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>41.60617040425794</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>142.5763624768729</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>75.70303989011289</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,7 +2725,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>114.6609836748544</v>
       </c>
       <c r="H28" t="n">
         <v>140.4539897919539</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
-        <v>194.9930462126501</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U28" t="n">
         <v>286.1854515484204</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>148.7189119192815</v>
+        <v>91.23885045891228</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5420528771669</v>
@@ -2968,7 +2968,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>381.7811231270409</v>
       </c>
       <c r="G32" t="n">
         <v>409.8432760127576</v>
@@ -3083,16 +3083,16 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U32" t="n">
-        <v>250.8072150796958</v>
+        <v>250.8072150796976</v>
       </c>
       <c r="V32" t="n">
-        <v>302.6573358554643</v>
+        <v>302.6573358554644</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>344.6361780637985</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>154.7370575672667</v>
+        <v>154.7370575672668</v>
       </c>
       <c r="C34" t="n">
         <v>142.1518984839573</v>
@@ -3196,7 +3196,7 @@
         <v>121.3390400318986</v>
       </c>
       <c r="F34" t="n">
-        <v>120.3261254082607</v>
+        <v>120.32612540826</v>
       </c>
       <c r="G34" t="n">
         <v>140.4471302624964</v>
@@ -3205,7 +3205,7 @@
         <v>115.3590671772834</v>
       </c>
       <c r="I34" t="n">
-        <v>56.70965412973845</v>
+        <v>56.70965412973848</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.08582897641298</v>
+        <v>42.08582897641304</v>
       </c>
       <c r="S34" t="n">
-        <v>156.2435657437884</v>
+        <v>156.2435657437885</v>
       </c>
       <c r="T34" t="n">
-        <v>192.3870718480912</v>
+        <v>192.3870718480913</v>
       </c>
       <c r="U34" t="n">
         <v>261.0905289337499</v>
       </c>
       <c r="V34" t="n">
-        <v>227.0427207091574</v>
+        <v>227.0427207091575</v>
       </c>
       <c r="W34" t="n">
-        <v>261.4280757219204</v>
+        <v>261.4280757219205</v>
       </c>
       <c r="X34" t="n">
         <v>200.6147327743666</v>
       </c>
       <c r="Y34" t="n">
-        <v>193.4897307374242</v>
+        <v>193.4897307374243</v>
       </c>
     </row>
     <row r="35">
@@ -3317,16 +3317,16 @@
         <v>84.51090969287124</v>
       </c>
       <c r="T35" t="n">
-        <v>199.1970568374742</v>
+        <v>174.1021342228036</v>
       </c>
       <c r="U35" t="n">
         <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
-        <v>302.6573358554643</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>324.1460461027424</v>
+        <v>324.1460461027425</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3433,7 +3433,7 @@
         <v>121.3390400318986</v>
       </c>
       <c r="F37" t="n">
-        <v>120.3261254082607</v>
+        <v>120.32612540826</v>
       </c>
       <c r="G37" t="n">
         <v>140.4471302624964</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.08582897641301</v>
+        <v>42.08582897641304</v>
       </c>
       <c r="S37" t="n">
-        <v>156.2435657437884</v>
+        <v>156.2435657437885</v>
       </c>
       <c r="T37" t="n">
         <v>192.3870718480913</v>
@@ -3481,10 +3481,10 @@
         <v>261.0905289337499</v>
       </c>
       <c r="V37" t="n">
-        <v>227.0427207091569</v>
+        <v>227.0427207091575</v>
       </c>
       <c r="W37" t="n">
-        <v>261.4280757219204</v>
+        <v>261.4280757219205</v>
       </c>
       <c r="X37" t="n">
         <v>200.6147327743666</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.581360712734</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>384.748353398087</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H38" t="n">
         <v>258.4681693898738</v>
@@ -3557,10 +3557,10 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9088959876463</v>
+        <v>250.8072150796958</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>302.6573358554644</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3679,7 +3679,7 @@
         <v>115.3590671772834</v>
       </c>
       <c r="I40" t="n">
-        <v>56.70965412973848</v>
+        <v>56.7096541297385</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.08582897641301</v>
+        <v>42.08582897641303</v>
       </c>
       <c r="S40" t="n">
-        <v>156.2435657437884</v>
+        <v>156.2435657437885</v>
       </c>
       <c r="T40" t="n">
         <v>192.3870718480913</v>
@@ -3721,7 +3721,7 @@
         <v>227.0427207091575</v>
       </c>
       <c r="W40" t="n">
-        <v>261.4280757219204</v>
+        <v>261.4280757219205</v>
       </c>
       <c r="X40" t="n">
         <v>200.6147327743666</v>
@@ -3749,13 +3749,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>381.7811231270409</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8432760127576</v>
+        <v>409.7415951048068</v>
       </c>
       <c r="H41" t="n">
-        <v>283.5630920045443</v>
+        <v>258.4681693898738</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.8072150796958</v>
+        <v>225.8139733729758</v>
       </c>
       <c r="V41" t="n">
-        <v>302.6573358554643</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3916,7 +3916,7 @@
         <v>115.3590671772834</v>
       </c>
       <c r="I43" t="n">
-        <v>56.70965412973847</v>
+        <v>56.7096541297385</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.085828976413</v>
+        <v>42.08582897641303</v>
       </c>
       <c r="S43" t="n">
-        <v>156.2435657437884</v>
+        <v>156.2435657437885</v>
       </c>
       <c r="T43" t="n">
         <v>192.3870718480913</v>
@@ -3958,7 +3958,7 @@
         <v>227.0427207091575</v>
       </c>
       <c r="W43" t="n">
-        <v>261.4280757219204</v>
+        <v>261.4280757219205</v>
       </c>
       <c r="X43" t="n">
         <v>200.6147327743666</v>
@@ -3983,10 +3983,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.8286891643111</v>
+        <v>356.8354474575912</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.7743648337609</v>
       </c>
       <c r="G44" t="n">
         <v>409.8432760127576</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>59.51766798614908</v>
+        <v>59.51766798614905</v>
       </c>
       <c r="T44" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>225.8139733729758</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>154.7370575672668</v>
+        <v>154.7370575672667</v>
       </c>
       <c r="C46" t="n">
         <v>142.1518984839573</v>
@@ -4153,7 +4153,7 @@
         <v>115.3590671772834</v>
       </c>
       <c r="I46" t="n">
-        <v>56.70965412973847</v>
+        <v>56.70965412973845</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.085828976413</v>
+        <v>42.08582897641298</v>
       </c>
       <c r="S46" t="n">
         <v>156.2435657437884</v>
       </c>
       <c r="T46" t="n">
-        <v>192.3870718480913</v>
+        <v>192.3870718480912</v>
       </c>
       <c r="U46" t="n">
         <v>261.0905289337499</v>
       </c>
       <c r="V46" t="n">
-        <v>227.0427207091575</v>
+        <v>227.0427207091574</v>
       </c>
       <c r="W46" t="n">
         <v>261.4280757219204</v>
@@ -4201,7 +4201,7 @@
         <v>200.6147327743666</v>
       </c>
       <c r="Y46" t="n">
-        <v>193.4897307374243</v>
+        <v>193.4897307374242</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70.39513954258382</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="C2" t="n">
-        <v>70.39513954258382</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="D2" t="n">
-        <v>70.39513954258382</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="E2" t="n">
-        <v>70.39513954258382</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="F2" t="n">
-        <v>19.4024787394762</v>
+        <v>143.9927752279951</v>
       </c>
       <c r="G2" t="n">
-        <v>4.038618735606123</v>
+        <v>93.00011442488747</v>
       </c>
       <c r="H2" t="n">
-        <v>4.038618735606123</v>
+        <v>42.00745362177985</v>
       </c>
       <c r="I2" t="n">
-        <v>4.038618735606123</v>
+        <v>8.177103637477007</v>
       </c>
       <c r="J2" t="n">
         <v>4.038618735606123</v>
@@ -4334,13 +4334,13 @@
         <v>4.038618735606123</v>
       </c>
       <c r="L2" t="n">
-        <v>54.01652558873189</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="M2" t="n">
+        <v>51.99721622092883</v>
+      </c>
+      <c r="N2" t="n">
         <v>101.9751230740546</v>
-      </c>
-      <c r="N2" t="n">
-        <v>151.9530299271804</v>
       </c>
       <c r="O2" t="n">
         <v>151.9530299271804</v>
@@ -4352,28 +4352,28 @@
         <v>201.9309367803062</v>
       </c>
       <c r="R2" t="n">
+        <v>201.9309367803062</v>
+      </c>
+      <c r="S2" t="n">
+        <v>201.9309367803062</v>
+      </c>
+      <c r="T2" t="n">
+        <v>201.9309367803062</v>
+      </c>
+      <c r="U2" t="n">
+        <v>201.9309367803062</v>
+      </c>
+      <c r="V2" t="n">
+        <v>201.9309367803062</v>
+      </c>
+      <c r="W2" t="n">
+        <v>201.9309367803062</v>
+      </c>
+      <c r="X2" t="n">
         <v>150.9382759771985</v>
       </c>
-      <c r="S2" t="n">
+      <c r="Y2" t="n">
         <v>150.9382759771985</v>
-      </c>
-      <c r="T2" t="n">
-        <v>150.9382759771985</v>
-      </c>
-      <c r="U2" t="n">
-        <v>121.3878003456914</v>
-      </c>
-      <c r="V2" t="n">
-        <v>121.3878003456914</v>
-      </c>
-      <c r="W2" t="n">
-        <v>121.3878003456914</v>
-      </c>
-      <c r="X2" t="n">
-        <v>70.39513954258382</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>70.39513954258382</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.9382759771985</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="C3" t="n">
         <v>106.0239403418214</v>
@@ -4401,7 +4401,7 @@
         <v>55.03127953871374</v>
       </c>
       <c r="H3" t="n">
-        <v>4.038618735606123</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="I3" t="n">
         <v>4.038618735606123</v>
@@ -4413,28 +4413,28 @@
         <v>57.90734322943065</v>
       </c>
       <c r="L3" t="n">
-        <v>57.90734322943065</v>
+        <v>107.8852500825564</v>
       </c>
       <c r="M3" t="n">
-        <v>107.8852500825564</v>
+        <v>157.8631569356822</v>
       </c>
       <c r="N3" t="n">
-        <v>157.8631569356822</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="O3" t="n">
-        <v>157.8631569356822</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="P3" t="n">
-        <v>157.8631569356822</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="Q3" t="n">
         <v>201.9309367803062</v>
       </c>
       <c r="R3" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="S3" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="T3" t="n">
         <v>150.9382759771985</v>
@@ -4446,13 +4446,13 @@
         <v>150.9382759771985</v>
       </c>
       <c r="W3" t="n">
-        <v>150.9382759771985</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="X3" t="n">
-        <v>150.9382759771985</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="Y3" t="n">
-        <v>150.9382759771985</v>
+        <v>106.0239403418214</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.03127953871374</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="C4" t="n">
-        <v>55.03127953871374</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="D4" t="n">
-        <v>4.038618735606123</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="E4" t="n">
-        <v>4.038618735606123</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="F4" t="n">
-        <v>4.038618735606123</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="G4" t="n">
-        <v>4.038618735606123</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="H4" t="n">
-        <v>4.038618735606123</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="I4" t="n">
-        <v>4.038618735606123</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="J4" t="n">
-        <v>4.038618735606123</v>
+        <v>21.66286067370327</v>
       </c>
       <c r="K4" t="n">
         <v>4.038618735606123</v>
@@ -4507,31 +4507,31 @@
         <v>165.4881834901262</v>
       </c>
       <c r="Q4" t="n">
-        <v>165.4881834901262</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="R4" t="n">
-        <v>114.4955226870186</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="S4" t="n">
-        <v>114.4955226870186</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="T4" t="n">
-        <v>63.50286188391095</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="U4" t="n">
-        <v>63.50286188391095</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="V4" t="n">
-        <v>55.03127953871374</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="W4" t="n">
-        <v>55.03127953871374</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="X4" t="n">
-        <v>55.03127953871374</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="Y4" t="n">
-        <v>55.03127953871374</v>
+        <v>72.65552147681089</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.16612652666438</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="C5" t="n">
-        <v>52.16612652666438</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="D5" t="n">
-        <v>52.16612652666438</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="E5" t="n">
-        <v>52.16612652666438</v>
+        <v>80.90402084214027</v>
       </c>
       <c r="F5" t="n">
-        <v>45.22062577746091</v>
+        <v>73.95852009293679</v>
       </c>
       <c r="G5" t="n">
-        <v>29.90552625491599</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="H5" t="n">
-        <v>4.303705438449811</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="I5" t="n">
         <v>4.303705438449811</v>
@@ -4568,49 +4568,49 @@
         <v>4.303705438449811</v>
       </c>
       <c r="K5" t="n">
-        <v>4.303705438449811</v>
+        <v>55.4102075200413</v>
       </c>
       <c r="L5" t="n">
-        <v>57.56206023926622</v>
+        <v>108.6685623208577</v>
       </c>
       <c r="M5" t="n">
-        <v>110.8204150400826</v>
+        <v>161.9269171216741</v>
       </c>
       <c r="N5" t="n">
-        <v>156.7661188041835</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="O5" t="n">
-        <v>156.7661188041835</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="P5" t="n">
-        <v>210.024473605</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="Q5" t="n">
         <v>215.1852719224906</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="S5" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="T5" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="U5" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="V5" t="n">
-        <v>106.5058416586064</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="W5" t="n">
-        <v>52.16612652666438</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="X5" t="n">
-        <v>52.16612652666438</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="Y5" t="n">
-        <v>52.16612652666438</v>
+        <v>215.1852719224906</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160.8455567905485</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="C6" t="n">
-        <v>160.8455567905485</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="D6" t="n">
-        <v>106.5058416586064</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="E6" t="n">
-        <v>52.16612652666438</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="F6" t="n">
-        <v>52.16612652666438</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="G6" t="n">
         <v>4.303705438449811</v>
@@ -4647,13 +4647,13 @@
         <v>4.303705438449811</v>
       </c>
       <c r="K6" t="n">
-        <v>4.303705438449811</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="L6" t="n">
-        <v>4.303705438449811</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="M6" t="n">
-        <v>55.4102075200413</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="N6" t="n">
         <v>108.6685623208577</v>
@@ -4662,7 +4662,7 @@
         <v>161.9269171216741</v>
       </c>
       <c r="P6" t="n">
-        <v>161.9269171216741</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="Q6" t="n">
         <v>215.1852719224906</v>
@@ -4686,10 +4686,10 @@
         <v>215.1852719224906</v>
       </c>
       <c r="X6" t="n">
-        <v>215.1852719224906</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="Y6" t="n">
-        <v>215.1852719224906</v>
+        <v>106.5058416586064</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.303705438449811</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="C7" t="n">
-        <v>4.303705438449811</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="D7" t="n">
-        <v>4.303705438449811</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="E7" t="n">
-        <v>4.303705438449811</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="F7" t="n">
-        <v>4.303705438449811</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="G7" t="n">
-        <v>4.303705438449811</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="H7" t="n">
-        <v>4.303705438449811</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="I7" t="n">
-        <v>4.303705438449811</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="J7" t="n">
-        <v>4.303705438449811</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="K7" t="n">
         <v>4.303705438449811</v>
@@ -4744,31 +4744,31 @@
         <v>181.2039013453972</v>
       </c>
       <c r="Q7" t="n">
-        <v>167.322850834276</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="R7" t="n">
-        <v>112.9831357023339</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="S7" t="n">
-        <v>112.9831357023339</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="T7" t="n">
-        <v>58.64342057039187</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="U7" t="n">
-        <v>58.64342057039187</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="V7" t="n">
-        <v>58.64342057039187</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="W7" t="n">
-        <v>58.64342057039187</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="X7" t="n">
-        <v>58.64342057039187</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.303705438449811</v>
+        <v>128.0662171626491</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>813.3857024132128</v>
+        <v>40.39970870623614</v>
       </c>
       <c r="C8" t="n">
-        <v>555.7237045108873</v>
+        <v>40.39970870623614</v>
       </c>
       <c r="D8" t="n">
-        <v>298.0617066085617</v>
+        <v>40.39970870623614</v>
       </c>
       <c r="E8" t="n">
         <v>40.39970870623614</v>
@@ -4808,19 +4808,19 @@
         <v>124.2042348018398</v>
       </c>
       <c r="L8" t="n">
-        <v>323.4204153877379</v>
+        <v>263.532890643093</v>
       </c>
       <c r="M8" t="n">
-        <v>510.1198282131455</v>
+        <v>450.2323034685007</v>
       </c>
       <c r="N8" t="n">
-        <v>704.4540411051279</v>
+        <v>644.5665163604831</v>
       </c>
       <c r="O8" t="n">
-        <v>874.6230664220874</v>
+        <v>814.7355416774426</v>
       </c>
       <c r="P8" t="n">
-        <v>985.3573916716139</v>
+        <v>925.4698669269691</v>
       </c>
       <c r="Q8" t="n">
         <v>1020.341511693209</v>
@@ -4835,19 +4835,19 @@
         <v>1020.341511693209</v>
       </c>
       <c r="U8" t="n">
-        <v>1020.341511693209</v>
+        <v>766.6498084383599</v>
       </c>
       <c r="V8" t="n">
-        <v>1020.341511693209</v>
+        <v>766.6498084383599</v>
       </c>
       <c r="W8" t="n">
-        <v>1020.341511693209</v>
+        <v>508.9878105360343</v>
       </c>
       <c r="X8" t="n">
-        <v>1020.341511693209</v>
+        <v>508.9878105360343</v>
       </c>
       <c r="Y8" t="n">
-        <v>1020.341511693209</v>
+        <v>298.0617066085617</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>225.5491422490032</v>
+        <v>649.5662821548129</v>
       </c>
       <c r="C9" t="n">
-        <v>225.5491422490032</v>
+        <v>475.113252873686</v>
       </c>
       <c r="D9" t="n">
-        <v>225.5491422490032</v>
+        <v>326.1788432124347</v>
       </c>
       <c r="E9" t="n">
-        <v>66.31168724354769</v>
+        <v>166.9413882069792</v>
       </c>
       <c r="F9" t="n">
-        <v>66.31168724354769</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="G9" t="n">
-        <v>66.31168724354769</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H9" t="n">
-        <v>66.31168724354769</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I9" t="n">
         <v>20.40683023386418</v>
@@ -4887,10 +4887,10 @@
         <v>88.01464989722122</v>
       </c>
       <c r="L9" t="n">
-        <v>225.2442479129152</v>
+        <v>278.2113644984387</v>
       </c>
       <c r="M9" t="n">
-        <v>476.8681061511033</v>
+        <v>530.7458886425079</v>
       </c>
       <c r="N9" t="n">
         <v>729.4026302951726</v>
@@ -4911,22 +4911,22 @@
         <v>1020.341511693209</v>
       </c>
       <c r="T9" t="n">
-        <v>1020.341511693209</v>
+        <v>877.7050696436472</v>
       </c>
       <c r="U9" t="n">
-        <v>855.7621347622267</v>
+        <v>649.5662821548129</v>
       </c>
       <c r="V9" t="n">
-        <v>855.7621347622267</v>
+        <v>649.5662821548129</v>
       </c>
       <c r="W9" t="n">
-        <v>601.5247780340251</v>
+        <v>649.5662821548129</v>
       </c>
       <c r="X9" t="n">
-        <v>601.5247780340251</v>
+        <v>649.5662821548129</v>
       </c>
       <c r="Y9" t="n">
-        <v>393.7644792690712</v>
+        <v>649.5662821548129</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>584.0085586570824</v>
+        <v>280.0054746869793</v>
       </c>
       <c r="C10" t="n">
-        <v>415.0723757291755</v>
+        <v>280.0054746869793</v>
       </c>
       <c r="D10" t="n">
-        <v>336.9267688208739</v>
+        <v>280.0054746869793</v>
       </c>
       <c r="E10" t="n">
-        <v>189.0136752384808</v>
+        <v>280.0054746869793</v>
       </c>
       <c r="F10" t="n">
-        <v>189.0136752384808</v>
+        <v>206.8882629978434</v>
       </c>
       <c r="G10" t="n">
-        <v>20.40683023386418</v>
+        <v>38.2814179932268</v>
       </c>
       <c r="H10" t="n">
-        <v>20.40683023386418</v>
+        <v>38.2814179932268</v>
       </c>
       <c r="I10" t="n">
-        <v>20.40683023386418</v>
+        <v>38.2814179932268</v>
       </c>
       <c r="J10" t="n">
         <v>20.40683023386418</v>
@@ -4999,13 +4999,13 @@
         <v>765.6570234873221</v>
       </c>
       <c r="W10" t="n">
-        <v>765.6570234873221</v>
+        <v>507.9950255849966</v>
       </c>
       <c r="X10" t="n">
-        <v>765.6570234873221</v>
+        <v>280.0054746869793</v>
       </c>
       <c r="Y10" t="n">
-        <v>765.6570234873221</v>
+        <v>280.0054746869793</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1630.997231092046</v>
+        <v>1949.473635334201</v>
       </c>
       <c r="C11" t="n">
-        <v>1262.034714151634</v>
+        <v>1949.473635334201</v>
       </c>
       <c r="D11" t="n">
-        <v>903.7690155448838</v>
+        <v>1591.207936727451</v>
       </c>
       <c r="E11" t="n">
-        <v>517.9807629466395</v>
+        <v>1205.419684129206</v>
       </c>
       <c r="F11" t="n">
-        <v>106.994858157032</v>
+        <v>794.4337793395989</v>
       </c>
       <c r="G11" t="n">
-        <v>106.994858157032</v>
+        <v>379.4664062878081</v>
       </c>
       <c r="H11" t="n">
-        <v>106.994858157032</v>
+        <v>82.95892677985182</v>
       </c>
       <c r="I11" t="n">
-        <v>69.04894441810659</v>
+        <v>69.04894441810657</v>
       </c>
       <c r="J11" t="n">
-        <v>266.6688892389302</v>
+        <v>266.6688892389299</v>
       </c>
       <c r="K11" t="n">
-        <v>613.5884770853636</v>
+        <v>613.5884770853639</v>
       </c>
       <c r="L11" t="n">
         <v>1080.874664395195</v>
@@ -5054,10 +5054,10 @@
         <v>2197.644900421024</v>
       </c>
       <c r="O11" t="n">
-        <v>2717.969365309782</v>
+        <v>2717.969365309781</v>
       </c>
       <c r="P11" t="n">
-        <v>3127.553257101431</v>
+        <v>3127.55325710143</v>
       </c>
       <c r="Q11" t="n">
         <v>3386.96095570058</v>
@@ -5066,25 +5066,25 @@
         <v>3452.447220905329</v>
       </c>
       <c r="S11" t="n">
-        <v>3344.550996921883</v>
+        <v>3452.447220905329</v>
       </c>
       <c r="T11" t="n">
-        <v>3139.033224325418</v>
+        <v>3452.447220905329</v>
       </c>
       <c r="U11" t="n">
-        <v>3139.033224325418</v>
+        <v>3452.447220905329</v>
       </c>
       <c r="V11" t="n">
-        <v>2807.970336981848</v>
+        <v>3452.447220905329</v>
       </c>
       <c r="W11" t="n">
-        <v>2455.201681711733</v>
+        <v>3099.678565635214</v>
       </c>
       <c r="X11" t="n">
-        <v>2081.735923450653</v>
+        <v>2726.212807374135</v>
       </c>
       <c r="Y11" t="n">
-        <v>1691.596591474842</v>
+        <v>2336.073475398323</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1583575389909</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9209025335355</v>
+        <v>458.9209025335354</v>
       </c>
       <c r="F12" t="n">
         <v>312.3863445604204</v>
@@ -5112,10 +5112,10 @@
         <v>176.0794655997244</v>
       </c>
       <c r="H12" t="n">
-        <v>86.12054973374262</v>
+        <v>86.12054973374259</v>
       </c>
       <c r="I12" t="n">
-        <v>69.04894441810659</v>
+        <v>69.04894441810657</v>
       </c>
       <c r="J12" t="n">
         <v>167.9321827642411</v>
@@ -5130,7 +5130,7 @@
         <v>1254.994620323959</v>
       </c>
       <c r="N12" t="n">
-        <v>1742.848880960411</v>
+        <v>1653.867928708635</v>
       </c>
       <c r="O12" t="n">
         <v>2077.9394719262</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>698.3289004281754</v>
+        <v>605.1605432401384</v>
       </c>
       <c r="C13" t="n">
-        <v>529.3927175002685</v>
+        <v>436.2243603122315</v>
       </c>
       <c r="D13" t="n">
-        <v>529.3927175002685</v>
+        <v>436.2243603122315</v>
       </c>
       <c r="E13" t="n">
-        <v>529.3927175002685</v>
+        <v>288.3112667298384</v>
       </c>
       <c r="F13" t="n">
-        <v>382.5027700023581</v>
+        <v>141.421319231928</v>
       </c>
       <c r="G13" t="n">
-        <v>214.8470673481698</v>
+        <v>141.421319231928</v>
       </c>
       <c r="H13" t="n">
-        <v>69.04894441810659</v>
+        <v>141.421319231928</v>
       </c>
       <c r="I13" t="n">
-        <v>69.04894441810659</v>
+        <v>69.04894441810657</v>
       </c>
       <c r="J13" t="n">
         <v>117.4376344233483</v>
@@ -5224,25 +5224,25 @@
         <v>1887.917273138196</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.052805533975</v>
+        <v>1887.917273138196</v>
       </c>
       <c r="T13" t="n">
-        <v>1475.487580707261</v>
+        <v>1666.352048311482</v>
       </c>
       <c r="U13" t="n">
-        <v>1186.387284776782</v>
+        <v>1377.251752381003</v>
       </c>
       <c r="V13" t="n">
-        <v>1147.111030469723</v>
+        <v>1122.567264175116</v>
       </c>
       <c r="W13" t="n">
-        <v>1147.111030469723</v>
+        <v>833.1500941381557</v>
       </c>
       <c r="X13" t="n">
-        <v>919.1214795717055</v>
+        <v>605.1605432401384</v>
       </c>
       <c r="Y13" t="n">
-        <v>698.3289004281754</v>
+        <v>605.1605432401384</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D14" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E14" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G14" t="n">
         <v>380.2757138127629</v>
@@ -5291,13 +5291,13 @@
         <v>2920.783927800321</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P14" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R14" t="n">
         <v>4692.417407580351</v>
@@ -5309,19 +5309,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="15">
@@ -5361,19 +5361,19 @@
         <v>572.0050724668117</v>
       </c>
       <c r="L15" t="n">
-        <v>920.1145186182265</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M15" t="n">
-        <v>1512.132872870354</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N15" t="n">
-        <v>2134.22883626969</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="O15" t="n">
-        <v>2134.22883626969</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.812354695766</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>634.178081139407</v>
+        <v>1099.422008959557</v>
       </c>
       <c r="C16" t="n">
-        <v>465.2418982115001</v>
+        <v>930.4858260316502</v>
       </c>
       <c r="D16" t="n">
-        <v>465.2418982115001</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E16" t="n">
-        <v>465.2418982115001</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F16" t="n">
-        <v>318.3519507135898</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G16" t="n">
         <v>318.3519507135898</v>
@@ -5467,19 +5467,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U16" t="n">
-        <v>1808.710334254042</v>
+        <v>1825.172132032644</v>
       </c>
       <c r="V16" t="n">
-        <v>1554.025846048155</v>
+        <v>1570.487643826757</v>
       </c>
       <c r="W16" t="n">
-        <v>1264.608676011194</v>
+        <v>1281.070473789797</v>
       </c>
       <c r="X16" t="n">
-        <v>1036.619125113177</v>
+        <v>1281.070473789797</v>
       </c>
       <c r="Y16" t="n">
-        <v>815.8265459696468</v>
+        <v>1281.070473789797</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D17" t="n">
         <v>1591.032978284208</v>
@@ -5501,10 +5501,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H17" t="n">
         <v>93.84834815160703</v>
@@ -5546,19 +5546,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5589,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I18" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K18" t="n">
-        <v>573.0441050413344</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L18" t="n">
-        <v>1063.776437885086</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M18" t="n">
-        <v>1063.776437885086</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.872401284422</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="O18" t="n">
         <v>1903.667562284443</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.8714428665047</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C19" t="n">
-        <v>402.9352599385978</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D19" t="n">
-        <v>402.9352599385978</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E19" t="n">
-        <v>402.9352599385978</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F19" t="n">
-        <v>402.9352599385978</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G19" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H19" t="n">
         <v>93.84834815160703</v>
@@ -5695,28 +5695,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S19" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T19" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U19" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V19" t="n">
-        <v>1414.943479856348</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W19" t="n">
-        <v>1125.526309819387</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X19" t="n">
-        <v>974.3124868402746</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.5199076967444</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C20" t="n">
         <v>1949.298676890959</v>
@@ -5738,10 +5738,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H20" t="n">
         <v>93.84834815160703</v>
@@ -5795,7 +5795,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K21" t="n">
-        <v>424.3570907149658</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L21" t="n">
-        <v>915.0894235587172</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M21" t="n">
-        <v>965.25639787016</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N21" t="n">
-        <v>1587.352361269496</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="O21" t="n">
-        <v>2134.22883626969</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.812354695766</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1099.422008959557</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C22" t="n">
-        <v>930.4858260316502</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D22" t="n">
-        <v>780.3691866193144</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="E22" t="n">
-        <v>632.4560930369213</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F22" t="n">
-        <v>485.5661455390109</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G22" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H22" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I22" t="n">
         <v>93.84834815160703</v>
@@ -5932,28 +5932,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S22" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T22" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U22" t="n">
-        <v>2026.563526789007</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V22" t="n">
-        <v>1771.87903858312</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.852603831344</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.863052933327</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y22" t="n">
-        <v>1281.070473789797</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C23" t="n">
         <v>1949.298676890959</v>
@@ -5975,10 +5975,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H23" t="n">
         <v>93.84834815160703</v>
@@ -6002,13 +6002,13 @@
         <v>2920.783927800321</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580351</v>
@@ -6020,19 +6020,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X23" t="n">
         <v>3095.000365871304</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K24" t="n">
-        <v>424.3570907149658</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L24" t="n">
-        <v>915.0894235587172</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>1384.839916296236</v>
+        <v>1246.245394651197</v>
       </c>
       <c r="N24" t="n">
-        <v>2006.935879695572</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.812354695766</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R24" t="n">
         <v>2553.812354695766</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>532.7276520234227</v>
+        <v>784.1719286328732</v>
       </c>
       <c r="C25" t="n">
-        <v>532.7276520234227</v>
+        <v>615.2357457049663</v>
       </c>
       <c r="D25" t="n">
-        <v>382.6110126110869</v>
+        <v>465.1191062926306</v>
       </c>
       <c r="E25" t="n">
-        <v>382.6110126110869</v>
+        <v>317.2060127102375</v>
       </c>
       <c r="F25" t="n">
-        <v>235.7210651131766</v>
+        <v>170.3160652123271</v>
       </c>
       <c r="G25" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H25" t="n">
         <v>93.84834815160703</v>
@@ -6178,19 +6178,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U25" t="n">
-        <v>1669.627968062235</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="V25" t="n">
-        <v>1414.943479856348</v>
+        <v>1704.019693541621</v>
       </c>
       <c r="W25" t="n">
-        <v>1125.526309819387</v>
+        <v>1414.60252350466</v>
       </c>
       <c r="X25" t="n">
-        <v>897.5367589213699</v>
+        <v>1186.612972606643</v>
       </c>
       <c r="Y25" t="n">
-        <v>676.7441797778398</v>
+        <v>965.820393463113</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D26" t="n">
         <v>1591.032978284208</v>
@@ -6212,10 +6212,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127631</v>
       </c>
       <c r="H26" t="n">
         <v>93.84834815160703</v>
@@ -6224,7 +6224,7 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J26" t="n">
-        <v>373.34422365072</v>
+        <v>424.1437450015196</v>
       </c>
       <c r="K26" t="n">
         <v>893.7741287892015</v>
@@ -6251,25 +6251,25 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T26" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U26" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="27">
@@ -6309,22 +6309,22 @@
         <v>572.0050724668117</v>
       </c>
       <c r="L27" t="n">
-        <v>920.1145186182265</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M27" t="n">
-        <v>1512.132872870354</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N27" t="n">
-        <v>2134.22883626969</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="O27" t="n">
-        <v>2134.22883626969</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R27" t="n">
         <v>2553.812354695766</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>699.4602891213869</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="C28" t="n">
-        <v>530.5241061934801</v>
+        <v>796.4599210349618</v>
       </c>
       <c r="D28" t="n">
-        <v>530.5241061934801</v>
+        <v>646.343281622626</v>
       </c>
       <c r="E28" t="n">
-        <v>382.6110126110869</v>
+        <v>498.4301880402329</v>
       </c>
       <c r="F28" t="n">
-        <v>235.7210651131766</v>
+        <v>351.5402405423225</v>
       </c>
       <c r="G28" t="n">
         <v>235.7210651131766</v>
@@ -6406,28 +6406,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S28" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T28" t="n">
-        <v>1981.420291091055</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U28" t="n">
-        <v>1692.344077405782</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V28" t="n">
-        <v>1437.659589199895</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W28" t="n">
-        <v>1148.242419162934</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X28" t="n">
-        <v>920.2528682649171</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y28" t="n">
-        <v>699.4602891213869</v>
+        <v>965.3961039628687</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2318.26119383137</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D29" t="n">
         <v>1591.032978284208</v>
@@ -6449,43 +6449,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>424.1437450015187</v>
+        <v>424.1437450015196</v>
       </c>
       <c r="K29" t="n">
-        <v>893.7741287892006</v>
+        <v>893.7741287892015</v>
       </c>
       <c r="L29" t="n">
-        <v>1513.293909294975</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M29" t="n">
-        <v>2234.298471234013</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N29" t="n">
-        <v>2971.583449151119</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O29" t="n">
-        <v>3654.445485610257</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P29" t="n">
         <v>4202.751434297606</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.41740758035</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
         <v>4606.9501443472</v>
@@ -6534,13 +6534,13 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K30" t="n">
         <v>424.3570907149658</v>
@@ -6549,19 +6549,19 @@
         <v>915.0894235587172</v>
       </c>
       <c r="M30" t="n">
-        <v>1507.107777810845</v>
+        <v>915.0894235587172</v>
       </c>
       <c r="N30" t="n">
-        <v>1903.667562284443</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O30" t="n">
-        <v>1903.667562284443</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P30" t="n">
-        <v>2323.251080710519</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1080.70694918244</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C31" t="n">
-        <v>930.4858260316502</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D31" t="n">
-        <v>780.3691866193144</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E31" t="n">
-        <v>632.4560930369213</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F31" t="n">
-        <v>485.5661455390109</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G31" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H31" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
         <v>172.8304710411609</v>
@@ -6646,25 +6646,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>2361.553154294196</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T31" t="n">
-        <v>2141.874372008578</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U31" t="n">
-        <v>1852.798158323305</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V31" t="n">
-        <v>1598.113670117418</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W31" t="n">
-        <v>1308.696500080457</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X31" t="n">
-        <v>1080.70694918244</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y31" t="n">
-        <v>1080.70694918244</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.224468905844</v>
+        <v>2291.876062224359</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.261951965432</v>
+        <v>1922.913545283947</v>
       </c>
       <c r="D32" t="n">
-        <v>1589.996253358682</v>
+        <v>1564.647846677196</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.208000760437</v>
+        <v>1178.859594078952</v>
       </c>
       <c r="F32" t="n">
         <v>793.22209597083</v>
@@ -6692,43 +6692,43 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H32" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I32" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J32" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K32" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L32" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M32" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N32" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O32" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P32" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q32" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R32" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S32" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T32" t="n">
-        <v>4353.904749750193</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U32" t="n">
         <v>4100.564128457571</v>
@@ -6740,10 +6740,10 @@
         <v>3442.080992525372</v>
       </c>
       <c r="X32" t="n">
-        <v>3093.963640945778</v>
+        <v>3068.615234264292</v>
       </c>
       <c r="Y32" t="n">
-        <v>2703.824308969966</v>
+        <v>2678.47590228848</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F33" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G33" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H33" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I33" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J33" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K33" t="n">
-        <v>92.81162322608053</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L33" t="n">
-        <v>106.3138404733484</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M33" t="n">
-        <v>698.3321947254761</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N33" t="n">
-        <v>1320.428158124812</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O33" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P33" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q33" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R33" t="n">
         <v>2552.77562977024</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>920.9464372636328</v>
+        <v>920.9464372636322</v>
       </c>
       <c r="C34" t="n">
-        <v>777.3586610172113</v>
+        <v>777.3586610172107</v>
       </c>
       <c r="D34" t="n">
-        <v>652.590428286361</v>
+        <v>652.5904282863603</v>
       </c>
       <c r="E34" t="n">
-        <v>530.0257413854533</v>
+        <v>530.0257413854525</v>
       </c>
       <c r="F34" t="n">
-        <v>408.4842005690284</v>
+        <v>408.4842005690283</v>
       </c>
       <c r="G34" t="n">
-        <v>266.6184124250927</v>
+        <v>266.6184124250925</v>
       </c>
       <c r="H34" t="n">
         <v>150.0941021450083</v>
       </c>
       <c r="I34" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J34" t="n">
         <v>196.6377195041583</v>
       </c>
       <c r="K34" t="n">
-        <v>481.1104198632459</v>
+        <v>481.1104198632458</v>
       </c>
       <c r="L34" t="n">
-        <v>893.716211334904</v>
+        <v>893.7162113349038</v>
       </c>
       <c r="M34" t="n">
         <v>1337.789776767887</v>
@@ -6880,10 +6880,10 @@
         <v>2627.127561518359</v>
       </c>
       <c r="R34" t="n">
-        <v>2584.616623158346</v>
+        <v>2584.616623158345</v>
       </c>
       <c r="S34" t="n">
-        <v>2426.794839578762</v>
+        <v>2426.794839578761</v>
       </c>
       <c r="T34" t="n">
         <v>2232.464463974628</v>
@@ -6895,10 +6895,10 @@
         <v>1739.400575446439</v>
       </c>
       <c r="W34" t="n">
-        <v>1475.331812090964</v>
+        <v>1475.331812090963</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.690667874432</v>
+        <v>1272.690667874431</v>
       </c>
       <c r="Y34" t="n">
         <v>1077.246495412387</v>
@@ -6932,13 +6932,13 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I35" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608088</v>
       </c>
       <c r="J35" t="n">
-        <v>372.3074987251944</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K35" t="n">
-        <v>841.9378825128765</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L35" t="n">
         <v>1461.457663018651</v>
@@ -6950,7 +6950,7 @@
         <v>2919.747202874795</v>
       </c>
       <c r="O35" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P35" t="n">
         <v>4150.915188021281</v>
@@ -6965,10 +6965,10 @@
         <v>4555.216606058703</v>
       </c>
       <c r="T35" t="n">
-        <v>4354.007457738022</v>
+        <v>4379.355864419507</v>
       </c>
       <c r="U35" t="n">
-        <v>4100.564128457571</v>
+        <v>4125.912535139057</v>
       </c>
       <c r="V35" t="n">
         <v>3794.849647795486</v>
@@ -7011,28 +7011,28 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I36" t="n">
-        <v>93.85065580060315</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J36" t="n">
-        <v>93.85065580060315</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K36" t="n">
-        <v>93.85065580060315</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L36" t="n">
-        <v>141.6400447072585</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M36" t="n">
-        <v>733.6583989593863</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N36" t="n">
-        <v>1355.754362358723</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O36" t="n">
-        <v>1902.630837358917</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q36" t="n">
         <v>2552.77562977024</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>920.9464372636329</v>
+        <v>920.9464372636322</v>
       </c>
       <c r="C37" t="n">
-        <v>777.3586610172114</v>
+        <v>777.3586610172107</v>
       </c>
       <c r="D37" t="n">
-        <v>652.5904282863611</v>
+        <v>652.5904282863603</v>
       </c>
       <c r="E37" t="n">
-        <v>530.0257413854533</v>
+        <v>530.0257413854525</v>
       </c>
       <c r="F37" t="n">
         <v>408.4842005690283</v>
@@ -7096,10 +7096,10 @@
         <v>196.6377195041583</v>
       </c>
       <c r="K37" t="n">
-        <v>481.1104198632459</v>
+        <v>481.1104198632458</v>
       </c>
       <c r="L37" t="n">
-        <v>893.716211334904</v>
+        <v>893.7162113349038</v>
       </c>
       <c r="M37" t="n">
         <v>1337.789776767887</v>
@@ -7132,10 +7132,10 @@
         <v>1739.400575446439</v>
       </c>
       <c r="W37" t="n">
-        <v>1475.331812090964</v>
+        <v>1475.331812090963</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.690667874432</v>
+        <v>1272.690667874431</v>
       </c>
       <c r="Y37" t="n">
         <v>1077.246495412387</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2266.424947555046</v>
+        <v>2291.876062224359</v>
       </c>
       <c r="C38" t="n">
-        <v>1897.462430614634</v>
+        <v>1922.913545283947</v>
       </c>
       <c r="D38" t="n">
-        <v>1539.299439995711</v>
+        <v>1564.647846677196</v>
       </c>
       <c r="E38" t="n">
-        <v>1153.511187397467</v>
+        <v>1178.859594078952</v>
       </c>
       <c r="F38" t="n">
-        <v>742.5252826078591</v>
+        <v>767.8736892893446</v>
       </c>
       <c r="G38" t="n">
-        <v>353.890582205751</v>
+        <v>353.8905822057511</v>
       </c>
       <c r="H38" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I38" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J38" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K38" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L38" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M38" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N38" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O38" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P38" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R38" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S38" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T38" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U38" t="n">
-        <v>4100.461420469745</v>
+        <v>4100.564128457571</v>
       </c>
       <c r="V38" t="n">
-        <v>3769.398533126174</v>
+        <v>3794.849647795486</v>
       </c>
       <c r="W38" t="n">
-        <v>3416.629877856059</v>
+        <v>3442.080992525372</v>
       </c>
       <c r="X38" t="n">
-        <v>3043.16411959498</v>
+        <v>3068.615234264292</v>
       </c>
       <c r="Y38" t="n">
-        <v>2653.024787619168</v>
+        <v>2678.47590228848</v>
       </c>
     </row>
     <row r="39">
@@ -7239,16 +7239,16 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F39" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G39" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H39" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I39" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J39" t="n">
         <v>240.4596049779265</v>
@@ -7260,10 +7260,10 @@
         <v>1061.700680385037</v>
       </c>
       <c r="M39" t="n">
-        <v>1383.80319137071</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N39" t="n">
-        <v>2005.899154770046</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O39" t="n">
         <v>2552.77562977024</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>920.9464372636329</v>
+        <v>920.9464372636328</v>
       </c>
       <c r="C40" t="n">
-        <v>777.3586610172114</v>
+        <v>777.3586610172113</v>
       </c>
       <c r="D40" t="n">
-        <v>652.5904282863611</v>
+        <v>652.5904282863609</v>
       </c>
       <c r="E40" t="n">
-        <v>530.0257413854533</v>
+        <v>530.0257413854531</v>
       </c>
       <c r="F40" t="n">
-        <v>408.4842005690283</v>
+        <v>408.4842005690282</v>
       </c>
       <c r="G40" t="n">
-        <v>266.6184124250923</v>
+        <v>266.6184124250924</v>
       </c>
       <c r="H40" t="n">
-        <v>150.094102145008</v>
+        <v>150.0941021450082</v>
       </c>
       <c r="I40" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J40" t="n">
-        <v>196.6377195041583</v>
+        <v>196.6377195041582</v>
       </c>
       <c r="K40" t="n">
-        <v>481.1104198632458</v>
+        <v>481.1104198632457</v>
       </c>
       <c r="L40" t="n">
-        <v>893.7162113349036</v>
+        <v>893.7162113349038</v>
       </c>
       <c r="M40" t="n">
         <v>1337.789776767887</v>
@@ -7348,13 +7348,13 @@
         <v>2169.196046351671</v>
       </c>
       <c r="P40" t="n">
-        <v>2484.5704545764</v>
+        <v>2484.570454576399</v>
       </c>
       <c r="Q40" t="n">
-        <v>2627.127561518359</v>
+        <v>2627.127561518358</v>
       </c>
       <c r="R40" t="n">
-        <v>2584.616623158346</v>
+        <v>2584.616623158345</v>
       </c>
       <c r="S40" t="n">
         <v>2426.794839578761</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2291.876062224359</v>
+        <v>2291.773354236529</v>
       </c>
       <c r="C41" t="n">
-        <v>1922.913545283947</v>
+        <v>1922.810837296118</v>
       </c>
       <c r="D41" t="n">
-        <v>1564.647846677196</v>
+        <v>1564.545138689367</v>
       </c>
       <c r="E41" t="n">
-        <v>1178.859594078952</v>
+        <v>1178.756886091123</v>
       </c>
       <c r="F41" t="n">
-        <v>793.22209597083</v>
+        <v>767.7709813015156</v>
       </c>
       <c r="G41" t="n">
-        <v>379.2389888872365</v>
+        <v>353.8905822057511</v>
       </c>
       <c r="H41" t="n">
         <v>92.81162322608053</v>
@@ -7412,22 +7412,22 @@
         <v>372.3074987251936</v>
       </c>
       <c r="K41" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128763</v>
       </c>
       <c r="L41" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M41" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N41" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O41" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P41" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q41" t="n">
         <v>4514.497374127288</v>
@@ -7442,19 +7442,19 @@
         <v>4353.904749750193</v>
       </c>
       <c r="U41" t="n">
-        <v>4100.564128457571</v>
+        <v>4125.809827151228</v>
       </c>
       <c r="V41" t="n">
-        <v>3794.849647795486</v>
+        <v>3794.746939807657</v>
       </c>
       <c r="W41" t="n">
-        <v>3442.080992525372</v>
+        <v>3441.978284537543</v>
       </c>
       <c r="X41" t="n">
-        <v>3068.615234264292</v>
+        <v>3068.512526276463</v>
       </c>
       <c r="Y41" t="n">
-        <v>2678.47590228848</v>
+        <v>2678.373194300651</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J42" t="n">
-        <v>106.3138404733484</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K42" t="n">
-        <v>106.3138404733484</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L42" t="n">
-        <v>106.3138404733484</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M42" t="n">
-        <v>698.3321947254761</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.428158124812</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O42" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P42" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q42" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R42" t="n">
         <v>2552.77562977024</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>920.946437263633</v>
+        <v>920.9464372636328</v>
       </c>
       <c r="C43" t="n">
-        <v>777.3586610172115</v>
+        <v>777.3586610172113</v>
       </c>
       <c r="D43" t="n">
-        <v>652.5904282863612</v>
+        <v>652.5904282863609</v>
       </c>
       <c r="E43" t="n">
-        <v>530.0257413854534</v>
+        <v>530.0257413854531</v>
       </c>
       <c r="F43" t="n">
-        <v>408.4842005690284</v>
+        <v>408.4842005690281</v>
       </c>
       <c r="G43" t="n">
-        <v>266.6184124250926</v>
+        <v>266.6184124250923</v>
       </c>
       <c r="H43" t="n">
         <v>150.0941021450083</v>
@@ -7567,10 +7567,10 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J43" t="n">
-        <v>196.637719504158</v>
+        <v>196.6377195041583</v>
       </c>
       <c r="K43" t="n">
-        <v>481.1104198632455</v>
+        <v>481.1104198632457</v>
       </c>
       <c r="L43" t="n">
         <v>893.7162113349036</v>
@@ -7579,16 +7579,16 @@
         <v>1337.789776767887</v>
       </c>
       <c r="N43" t="n">
-        <v>1777.329615948118</v>
+        <v>1777.329615948117</v>
       </c>
       <c r="O43" t="n">
         <v>2169.196046351671</v>
       </c>
       <c r="P43" t="n">
-        <v>2484.5704545764</v>
+        <v>2484.570454576399</v>
       </c>
       <c r="Q43" t="n">
-        <v>2627.127561518359</v>
+        <v>2627.127561518358</v>
       </c>
       <c r="R43" t="n">
         <v>2584.616623158345</v>
@@ -7600,16 +7600,16 @@
         <v>2232.464463974628</v>
       </c>
       <c r="U43" t="n">
-        <v>1968.736656970841</v>
+        <v>1968.73665697084</v>
       </c>
       <c r="V43" t="n">
         <v>1739.400575446439</v>
       </c>
       <c r="W43" t="n">
-        <v>1475.331812090964</v>
+        <v>1475.331812090963</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.690667874432</v>
+        <v>1272.690667874431</v>
       </c>
       <c r="Y43" t="n">
         <v>1077.246495412387</v>
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.121760918015</v>
+        <v>2291.773354236529</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.159243977603</v>
+        <v>1922.810837296118</v>
       </c>
       <c r="D44" t="n">
-        <v>1589.893545370853</v>
+        <v>1564.545138689367</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.105292772609</v>
       </c>
       <c r="F44" t="n">
         <v>793.22209597083</v>
@@ -7655,16 +7655,16 @@
         <v>1461.457663018651</v>
       </c>
       <c r="M44" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N44" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O44" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P44" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q44" t="n">
         <v>4514.497374127288</v>
@@ -7679,19 +7679,19 @@
         <v>4379.253156431679</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.158233832713</v>
+        <v>4125.809827151228</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.095346489143</v>
+        <v>3794.746939807657</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.326691219028</v>
+        <v>3441.978284537543</v>
       </c>
       <c r="X44" t="n">
-        <v>3093.860932957949</v>
+        <v>3068.512526276463</v>
       </c>
       <c r="Y44" t="n">
-        <v>2703.721600982137</v>
+        <v>2678.373194300651</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>92.81162322608053</v>
       </c>
       <c r="I45" t="n">
-        <v>93.85065580060312</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J45" t="n">
-        <v>93.85065580060312</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K45" t="n">
-        <v>106.3138404733484</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L45" t="n">
-        <v>106.3138404733484</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M45" t="n">
-        <v>698.3321947254761</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.428158124812</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O45" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P45" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q45" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R45" t="n">
         <v>2552.77562977024</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>920.9464372636327</v>
+        <v>920.9464372636328</v>
       </c>
       <c r="C46" t="n">
-        <v>777.3586610172111</v>
+        <v>777.3586610172113</v>
       </c>
       <c r="D46" t="n">
-        <v>652.5904282863609</v>
+        <v>652.590428286361</v>
       </c>
       <c r="E46" t="n">
-        <v>530.0257413854531</v>
+        <v>530.0257413854533</v>
       </c>
       <c r="F46" t="n">
-        <v>408.4842005690281</v>
+        <v>408.4842005690284</v>
       </c>
       <c r="G46" t="n">
-        <v>266.6184124250923</v>
+        <v>266.6184124250924</v>
       </c>
       <c r="H46" t="n">
-        <v>150.094102145008</v>
+        <v>150.0941021450083</v>
       </c>
       <c r="I46" t="n">
-        <v>92.81162322608051</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J46" t="n">
         <v>196.6377195041583</v>
       </c>
       <c r="K46" t="n">
-        <v>481.1104198632455</v>
+        <v>481.1104198632461</v>
       </c>
       <c r="L46" t="n">
-        <v>893.7162113349036</v>
+        <v>893.7162113349042</v>
       </c>
       <c r="M46" t="n">
         <v>1337.789776767887</v>
@@ -7819,7 +7819,7 @@
         <v>1777.329615948118</v>
       </c>
       <c r="O46" t="n">
-        <v>2169.196046351671</v>
+        <v>2169.196046351672</v>
       </c>
       <c r="P46" t="n">
         <v>2484.5704545764</v>
@@ -7828,10 +7828,10 @@
         <v>2627.127561518359</v>
       </c>
       <c r="R46" t="n">
-        <v>2584.616623158345</v>
+        <v>2584.616623158346</v>
       </c>
       <c r="S46" t="n">
-        <v>2426.794839578761</v>
+        <v>2426.794839578762</v>
       </c>
       <c r="T46" t="n">
         <v>2232.464463974628</v>
@@ -7982,7 +7982,7 @@
         <v>208.3214547517356</v>
       </c>
       <c r="L2" t="n">
-        <v>271.649412930509</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M2" t="n">
         <v>262.5442413612734</v>
@@ -7991,7 +7991,7 @@
         <v>263.3879167614743</v>
       </c>
       <c r="O2" t="n">
-        <v>214.5102874732696</v>
+        <v>264.993021668346</v>
       </c>
       <c r="P2" t="n">
         <v>268.4117974997384</v>
@@ -8061,13 +8061,13 @@
         <v>180.3309306186853</v>
       </c>
       <c r="L3" t="n">
-        <v>127.8064787429921</v>
+        <v>178.2892129380686</v>
       </c>
       <c r="M3" t="n">
         <v>180.0744745527947</v>
       </c>
       <c r="N3" t="n">
-        <v>168.9501955242219</v>
+        <v>162.980370263109</v>
       </c>
       <c r="O3" t="n">
         <v>130.8188201934042</v>
@@ -8076,7 +8076,7 @@
         <v>124.5219861368073</v>
       </c>
       <c r="Q3" t="n">
-        <v>178.1759897207746</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>202.1809638361346</v>
+        <v>253.8036932114795</v>
       </c>
       <c r="L5" t="n">
         <v>267.3451747559029</v>
@@ -8225,16 +8225,16 @@
         <v>259.4212368511231</v>
       </c>
       <c r="N5" t="n">
-        <v>250.7015343101077</v>
+        <v>258.0880505088102</v>
       </c>
       <c r="O5" t="n">
         <v>206.3768508508745</v>
       </c>
       <c r="P5" t="n">
-        <v>264.7836813017771</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8295,25 +8295,25 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
-        <v>125.6774978810001</v>
+        <v>179.4738158616228</v>
       </c>
       <c r="L6" t="n">
         <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
-        <v>174.67017620544</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N6" t="n">
-        <v>165.5462778056219</v>
+        <v>163.3726892003442</v>
       </c>
       <c r="O6" t="n">
         <v>178.4699366681766</v>
       </c>
       <c r="P6" t="n">
-        <v>119.5899201578276</v>
+        <v>173.3862381384502</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1624432744798</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,7 +8456,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>60.49244923701499</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>60.49244923701495</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8535,13 +8535,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>53.50213796517528</v>
       </c>
       <c r="M9" t="n">
-        <v>72.85507260968018</v>
+        <v>73.77493716107517</v>
       </c>
       <c r="N9" t="n">
-        <v>54.42200251657027</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="K26" t="n">
-        <v>51.31264782909039</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>51.31264782908954</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>348.4961881513452</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>93.57486856939362</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>77.33766260991102</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22717,7 +22717,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9494798159088</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22756,13 +22756,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>177.2855390059461</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>243.7507768020828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>322.7404748845128</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.8176993212729</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>293.5424047128766</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>23.79557206340838</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>106.8172617436121</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.4625948704999</v>
       </c>
       <c r="U11" t="n">
         <v>250.9868498523275</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.9791456276464</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.3401417007626</v>
       </c>
       <c r="I13" t="n">
-        <v>94.94914782246548</v>
+        <v>23.30049675678222</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>188.9558229281791</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>213.2541515598394</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>137.6915425298888</v>
+        <v>153.9887223307054</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>16.98870227489024</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>81.80457674440902</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>76.00797063971558</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>55.19511218765689</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>244.9168279323331</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>37.25561770506437</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>89.83901298705403</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
         <v>81.80457674440902</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>50.88106920231249</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>22.48894825011166</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>18.52790917934638</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1258191.232009882</v>
+        <v>1258191.232009881</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1258191.232009882</v>
+        <v>1258191.232009881</v>
       </c>
     </row>
     <row r="12">
@@ -26323,13 +26323,13 @@
         <v>138727.0850817076</v>
       </c>
       <c r="F2" t="n">
-        <v>161336.5954237119</v>
+        <v>161336.5954237118</v>
       </c>
       <c r="G2" t="n">
         <v>161336.5954237119</v>
       </c>
       <c r="H2" t="n">
-        <v>161336.5954237118</v>
+        <v>161336.5954237119</v>
       </c>
       <c r="I2" t="n">
         <v>161336.5954237119</v>
@@ -26350,7 +26350,7 @@
         <v>164208.3539728567</v>
       </c>
       <c r="O2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="P2" t="n">
         <v>164208.3539728567</v>
@@ -26390,16 +26390,16 @@
         <v>13208.50450573661</v>
       </c>
       <c r="K3" t="n">
-        <v>852.8104317183812</v>
+        <v>852.8104317184398</v>
       </c>
       <c r="L3" t="n">
-        <v>67740.56571010887</v>
+        <v>67740.5657101089</v>
       </c>
       <c r="M3" t="n">
-        <v>151522.6177896244</v>
+        <v>151522.6177896243</v>
       </c>
       <c r="N3" t="n">
-        <v>75925.54447793828</v>
+        <v>75925.54447793817</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>250996.9018570691</v>
       </c>
       <c r="E4" t="n">
-        <v>7347.030469758639</v>
+        <v>7347.03046975864</v>
       </c>
       <c r="F4" t="n">
-        <v>8630.196431623881</v>
+        <v>8630.196431623866</v>
       </c>
       <c r="G4" t="n">
         <v>8630.196431623866</v>
@@ -26436,25 +26436,25 @@
         <v>8630.196431623866</v>
       </c>
       <c r="I4" t="n">
-        <v>8630.196431623883</v>
+        <v>8630.196431623866</v>
       </c>
       <c r="J4" t="n">
         <v>8630.196431623899</v>
       </c>
       <c r="K4" t="n">
-        <v>8630.196431623879</v>
+        <v>8630.196431623899</v>
       </c>
       <c r="L4" t="n">
-        <v>18043.21388444103</v>
+        <v>18043.21388444093</v>
       </c>
       <c r="M4" t="n">
-        <v>18043.21388444092</v>
+        <v>18043.21388444091</v>
       </c>
       <c r="N4" t="n">
-        <v>18043.21388444095</v>
+        <v>18043.21388444101</v>
       </c>
       <c r="O4" t="n">
-        <v>18043.21388444101</v>
+        <v>18043.21388444102</v>
       </c>
       <c r="P4" t="n">
         <v>18043.21388444103</v>
@@ -26476,7 +26476,7 @@
         <v>62074.5699651066</v>
       </c>
       <c r="E5" t="n">
-        <v>76798.43862352686</v>
+        <v>76798.43862352685</v>
       </c>
       <c r="F5" t="n">
         <v>100930.0394572385</v>
@@ -26497,13 +26497,13 @@
         <v>100930.0394572385</v>
       </c>
       <c r="L5" t="n">
-        <v>102251.8335631311</v>
+        <v>102251.8335631312</v>
       </c>
       <c r="M5" t="n">
         <v>102251.8335631312</v>
       </c>
       <c r="N5" t="n">
-        <v>102251.8335631312</v>
+        <v>102251.8335631311</v>
       </c>
       <c r="O5" t="n">
         <v>102251.8335631311</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-294009.9611726964</v>
+        <v>-294079.3119141386</v>
       </c>
       <c r="C6" t="n">
         <v>-274737.5395117662</v>
@@ -26528,34 +26528,34 @@
         <v>-689658.0815567282</v>
       </c>
       <c r="E6" t="n">
-        <v>-546480.3877737342</v>
+        <v>-546798.9036348735</v>
       </c>
       <c r="F6" t="n">
-        <v>-228638.7878766827</v>
+        <v>-228674.6848585471</v>
       </c>
       <c r="G6" t="n">
-        <v>51776.35953484947</v>
+        <v>51740.46255298516</v>
       </c>
       <c r="H6" t="n">
-        <v>51776.35953484944</v>
+        <v>51740.46255298516</v>
       </c>
       <c r="I6" t="n">
-        <v>51776.35953484947</v>
+        <v>51740.46255298519</v>
       </c>
       <c r="J6" t="n">
-        <v>38567.85502911286</v>
+        <v>38531.95804724858</v>
       </c>
       <c r="K6" t="n">
-        <v>50923.54910313107</v>
+        <v>50887.65212126671</v>
       </c>
       <c r="L6" t="n">
-        <v>-23827.25918482432</v>
+        <v>-23827.25918482424</v>
       </c>
       <c r="M6" t="n">
         <v>-107609.3112643397</v>
       </c>
       <c r="N6" t="n">
-        <v>-32012.23795265374</v>
+        <v>-32012.2379526536</v>
       </c>
       <c r="O6" t="n">
         <v>43913.30652528457</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>25.09492261467056</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="M2" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="N2" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="O2" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="P2" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
     </row>
     <row r="3">
@@ -26796,7 +26796,7 @@
         <v>255.0853779233022</v>
       </c>
       <c r="E4" t="n">
-        <v>863.1118052263323</v>
+        <v>863.1118052263322</v>
       </c>
       <c r="F4" t="n">
         <v>1173.104351895088</v>
@@ -26817,13 +26817,13 @@
         <v>1173.104351895088</v>
       </c>
       <c r="L4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="M4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="N4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="O4" t="n">
         <v>1160.145290326006</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>25.09492261467056</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>608.02642730303</v>
       </c>
       <c r="F4" t="n">
-        <v>309.9925466687555</v>
+        <v>309.9925466687556</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>50.48273419507655</v>
       </c>
       <c r="K4" t="n">
-        <v>3.313583785545916</v>
+        <v>3.313583785546143</v>
       </c>
       <c r="L4" t="n">
-        <v>188.3299983735985</v>
+        <v>188.3299983735988</v>
       </c>
       <c r="M4" t="n">
-        <v>608.0264273030305</v>
+        <v>608.02642730303</v>
       </c>
       <c r="N4" t="n">
-        <v>309.9925466687555</v>
+        <v>309.992546668755</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>608.02642730303</v>
       </c>
       <c r="N4" t="n">
-        <v>309.9925466687555</v>
+        <v>309.9925466687556</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27388,19 +27388,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>356.3933115466349</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>16.23129905740961</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>288.0445872958018</v>
       </c>
       <c r="I2" t="n">
-        <v>206.909162189371</v>
+        <v>173.4171157049111</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
         <v>206.9118586999128</v>
@@ -27433,7 +27433,7 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>144.7456181338291</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>128.2433067092923</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27473,10 +27473,10 @@
         <v>86.81128248461911</v>
       </c>
       <c r="H3" t="n">
-        <v>61.27463958220945</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>37.2096056932131</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>46.60172783196104</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>149.4824728139983</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
         <v>225.9381254702172</v>
@@ -27518,7 +27518,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>207.2297908818962</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>98.13273882313581</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
         <v>161.8582038473137</v>
@@ -27558,10 +27558,10 @@
         <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839145</v>
+        <v>39.94242826331492</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.6870224659892</v>
+        <v>32.20428827091266</v>
       </c>
       <c r="R4" t="n">
-        <v>124.9446868416198</v>
+        <v>134.0058198385908</v>
       </c>
       <c r="S4" t="n">
         <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
         <v>286.3167657450791</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>311.4765737903849</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>300.8867236400603</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>356.5845674639603</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>312.6871442859993</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>151.2518041370232</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>87.22896370465668</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S5" t="n">
         <v>205.8118405263978</v>
@@ -27673,10 +27673,10 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
-        <v>273.9559404895123</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>295.4446507367904</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112.7368656692447</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,13 +27701,13 @@
         <v>93.64874758401612</v>
       </c>
       <c r="E6" t="n">
-        <v>103.8487624747783</v>
+        <v>110.2612835780685</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>89.88439153640687</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
         <v>111.5079271034444</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>151.9766672228548</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>151.8863777966817</v>
       </c>
     </row>
     <row r="7">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>126.0356622013147</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>113.4505031180052</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27798,7 +27798,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.13159287709649</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R7" t="n">
-        <v>120.6574806831568</v>
+        <v>121.8474913228588</v>
       </c>
       <c r="S7" t="n">
         <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
-        <v>173.8794355044132</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U7" t="n">
         <v>286.3155846423218</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>164.7883353714722</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.8475904762844</v>
+        <v>127.6484637401783</v>
       </c>
       <c r="C8" t="n">
-        <v>110.1875138477053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>99.59766369738071</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>126.8449921489595</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27907,19 +27907,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>94.15559079411076</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>177.4210957678557</v>
       </c>
     </row>
     <row r="9">
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>136.0669836643703</v>
@@ -27950,7 +27950,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,22 +27983,22 @@
         <v>147.9721212459916</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>53.80932525244714</v>
       </c>
       <c r="U9" t="n">
-        <v>62.92381645227337</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>71.25132217899377</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>73.03500845068676</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>31.43762041328876</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29803,16 +29803,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1016809079505094</v>
+        <v>0.1016809079487189</v>
       </c>
       <c r="V32" t="n">
-        <v>25.09492261467056</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>25.09492261467056</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.09492261467056</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="C34" t="n">
-        <v>25.09492261467056</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="D34" t="n">
-        <v>25.09492261467056</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="E34" t="n">
-        <v>25.09492261467056</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="F34" t="n">
-        <v>25.09492261467056</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="G34" t="n">
-        <v>25.09492261467056</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="H34" t="n">
-        <v>25.09492261467056</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="I34" t="n">
-        <v>25.09492261467056</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="J34" t="n">
-        <v>25.09492261467056</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="K34" t="n">
-        <v>25.09492261467056</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="L34" t="n">
-        <v>25.09492261467056</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="M34" t="n">
-        <v>25.09492261467056</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="N34" t="n">
-        <v>25.09492261467056</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="O34" t="n">
-        <v>25.09492261467056</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="P34" t="n">
-        <v>25.09492261467056</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="Q34" t="n">
-        <v>25.09492261467056</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="R34" t="n">
-        <v>25.09492261467056</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="S34" t="n">
-        <v>25.09492261467056</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="T34" t="n">
-        <v>25.09492261467056</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="U34" t="n">
-        <v>25.09492261467056</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="V34" t="n">
-        <v>25.09492261467056</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="W34" t="n">
-        <v>25.09492261467056</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="X34" t="n">
-        <v>25.09492261467056</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="Y34" t="n">
-        <v>25.09492261467056</v>
+        <v>25.09492261467052</v>
       </c>
     </row>
     <row r="35">
@@ -30037,16 +30037,16 @@
         <v>0.1016809079483778</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>25.09492261467054</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="C37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="D37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="E37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="F37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="G37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="H37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="I37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="J37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="K37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="L37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="M37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="N37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="O37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="P37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="Q37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="R37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="S37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="T37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="U37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="V37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="W37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="X37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="Y37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1016809079490031</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>25.09492261467054</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30277,10 +30277,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.1016809079505094</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="C40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="D40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="E40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="F40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="G40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="H40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="I40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="J40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="K40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="L40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="M40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="N40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="O40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="P40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="R40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="S40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="T40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="U40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="V40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="W40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="X40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="Y40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
     </row>
     <row r="41">
@@ -30469,13 +30469,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>25.09492261467054</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.1016809079507652</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30514,10 +30514,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1016809079505094</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="V41" t="n">
-        <v>25.09492261467054</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="C43" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="D43" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="E43" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="F43" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="G43" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="H43" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="I43" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="J43" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="K43" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="L43" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="M43" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="N43" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="O43" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="P43" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="R43" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="S43" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="T43" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="U43" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="V43" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="W43" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="X43" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="Y43" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467052</v>
       </c>
     </row>
     <row r="44">
@@ -30703,10 +30703,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1016809079507084</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>0.1016809079505379</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -30745,13 +30745,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>25.09492261467054</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="C46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="D46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="E46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="F46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="G46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="H46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="I46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="J46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="K46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="L46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="M46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="N46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="O46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="P46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="R46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="S46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="T46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="U46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="V46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="W46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="X46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="Y46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
     </row>
   </sheetData>
@@ -31850,10 +31850,10 @@
         <v>608.0310216441463</v>
       </c>
       <c r="N12" t="n">
-        <v>624.1237935342953</v>
+        <v>534.2440437850269</v>
       </c>
       <c r="O12" t="n">
-        <v>481.0715888543321</v>
+        <v>570.9513386036006</v>
       </c>
       <c r="P12" t="n">
         <v>458.2387851885554</v>
@@ -32081,13 +32081,13 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>490.1800829631214</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>382.7677754386387</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -32096,7 +32096,7 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,7 +32309,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>275.9770021735818</v>
@@ -32321,13 +32321,13 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927639</v>
+        <v>382.7677754386387</v>
       </c>
       <c r="O18" t="n">
-        <v>362.5913565656782</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>557.7961431982454</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
         <v>471.6886536848224</v>
@@ -32558,19 +32558,19 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>192.8077453477181</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927639</v>
+        <v>382.7677754386387</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>557.7961431982454</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
         <v>471.6886536848224</v>
@@ -32795,22 +32795,22 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M24" t="n">
-        <v>616.6294811316333</v>
+        <v>327.4956393165978</v>
       </c>
       <c r="N24" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S24" t="n">
         <v>54.25758340862161</v>
@@ -33029,13 +33029,13 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L27" t="n">
-        <v>490.1800829631214</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M27" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927639</v>
+        <v>347.0847408589315</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -33044,10 +33044,10 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S27" t="n">
         <v>54.25758340862161</v>
@@ -33269,13 +33269,13 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>531.9071509455538</v>
+        <v>541.8219741960825</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P30" t="n">
         <v>557.7961431982454</v>
@@ -33284,7 +33284,7 @@
         <v>372.8719498286953</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S30" t="n">
         <v>54.25758340862161</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
-        <v>152.1929830599427</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M33" t="n">
         <v>740.1323715504302</v>
@@ -33512,16 +33512,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P33" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.25758340862161</v>
@@ -33731,16 +33731,16 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I36" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>186.8264897865968</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M36" t="n">
         <v>740.1323715504302</v>
@@ -33749,13 +33749,13 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33980,13 +33980,13 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M39" t="n">
-        <v>467.4901056247181</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34132,7 +34132,7 @@
         <v>463.3649706874065</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830439</v>
       </c>
       <c r="L41" t="n">
         <v>861.5439710364265</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>140.4762299467352</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M42" t="n">
         <v>740.1323715504302</v>
@@ -34223,16 +34223,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.25758340862161</v>
@@ -34372,7 +34372,7 @@
         <v>694.4639760830431</v>
       </c>
       <c r="L44" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M44" t="n">
         <v>958.633669529331</v>
@@ -34442,16 +34442,16 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>150.4305144013744</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M45" t="n">
         <v>740.1323715504302</v>
@@ -34460,16 +34460,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P45" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.25758340862161</v>
@@ -34702,7 +34702,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>48.44302776295223</v>
@@ -34711,7 +34711,7 @@
         <v>50.48273419507654</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="P2" t="n">
         <v>50.48273419507654</v>
@@ -34781,13 +34781,13 @@
         <v>50.48273419507654</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="M3" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="N3" t="n">
-        <v>50.48273419507654</v>
+        <v>44.51290893396361</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.51290893396361</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>51.62272937534495</v>
       </c>
       <c r="L5" t="n">
         <v>53.79631798062264</v>
@@ -34945,16 +34945,16 @@
         <v>53.79631798062264</v>
       </c>
       <c r="N5" t="n">
-        <v>46.40980178192012</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>51.62272937534495</v>
-      </c>
-      <c r="N6" t="n">
-        <v>53.79631798062264</v>
       </c>
       <c r="O6" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="Q6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,7 +35176,7 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>201.2284652382808</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
@@ -35191,7 +35191,7 @@
         <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>95.82994420832314</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>192.1178935365833</v>
       </c>
       <c r="M9" t="n">
-        <v>254.1655133719073</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="N9" t="n">
-        <v>255.0853779233022</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>161.1235481502633</v>
@@ -35498,10 +35498,10 @@
         <v>465.896987722128</v>
       </c>
       <c r="N12" t="n">
-        <v>492.782081450962</v>
+        <v>402.9023317016936</v>
       </c>
       <c r="O12" t="n">
-        <v>338.4753444098877</v>
+        <v>428.3550941591561</v>
       </c>
       <c r="P12" t="n">
         <v>324.2643777742252</v>
@@ -35659,7 +35659,7 @@
         <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>741.0722806160982</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
         <v>553.844392613483</v>
@@ -35668,7 +35668,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>351.6257031832473</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>251.4260633553054</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>149.1393755069151</v>
@@ -35969,13 +35969,13 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094306</v>
+        <v>251.4260633553054</v>
       </c>
       <c r="O18" t="n">
-        <v>219.9951121212337</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>423.8217357839152</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
         <v>333.8472147104634</v>
@@ -36206,19 +36206,19 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>50.6737114256998</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094306</v>
+        <v>251.4260633553054</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>423.8217357839152</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>744.73230092637</v>
       </c>
       <c r="O23" t="n">
-        <v>741.0722806160982</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P23" t="n">
         <v>553.844392613483</v>
@@ -36379,7 +36379,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
         <v>333.8472147104634</v>
@@ -36443,22 +36443,22 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M24" t="n">
-        <v>474.495447209615</v>
+        <v>185.3616053945795</v>
       </c>
       <c r="N24" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607202</v>
+        <v>333.6317139898107</v>
       </c>
       <c r="K26" t="n">
-        <v>525.686772867153</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L26" t="n">
         <v>625.7775560664393</v>
@@ -36677,13 +36677,13 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L27" t="n">
-        <v>351.6257031832473</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M27" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094306</v>
+        <v>215.7430287755981</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,10 +36692,10 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>333.6317139898098</v>
+        <v>333.6317139898107</v>
       </c>
       <c r="K29" t="n">
         <v>474.3741250380626</v>
@@ -36917,13 +36917,13 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>400.5654388622204</v>
+        <v>410.4802621127491</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P30" t="n">
         <v>423.8217357839152</v>
@@ -36932,7 +36932,7 @@
         <v>232.8901757426738</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
-        <v>13.63860328006852</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M33" t="n">
         <v>597.9983376284119</v>
@@ -37160,16 +37160,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O33" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>104.8748447253311</v>
+        <v>104.874844725331</v>
       </c>
       <c r="K34" t="n">
         <v>287.3461619788763</v>
@@ -37233,7 +37233,7 @@
         <v>416.7735267390486</v>
       </c>
       <c r="M34" t="n">
-        <v>448.5591570030134</v>
+        <v>448.5591570030133</v>
       </c>
       <c r="N34" t="n">
         <v>443.9796355355866</v>
@@ -37242,7 +37242,7 @@
         <v>395.8246771753065</v>
       </c>
       <c r="P34" t="n">
-        <v>318.5600083078065</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q34" t="n">
         <v>143.9970777191504</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>48.27211000672261</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M36" t="n">
         <v>597.9983376284119</v>
@@ -37397,13 +37397,13 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>104.8748447253311</v>
+        <v>104.874844725331</v>
       </c>
       <c r="K37" t="n">
         <v>287.3461619788763</v>
@@ -37479,7 +37479,7 @@
         <v>395.8246771753065</v>
       </c>
       <c r="P37" t="n">
-        <v>318.5600083078065</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q37" t="n">
         <v>143.9970777191504</v>
@@ -37628,13 +37628,13 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M39" t="n">
-        <v>325.3560717026998</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>104.8748447253311</v>
+        <v>104.874844725331</v>
       </c>
       <c r="K40" t="n">
-        <v>287.3461619788763</v>
+        <v>287.3461619788762</v>
       </c>
       <c r="L40" t="n">
-        <v>416.7735267390486</v>
+        <v>416.7735267390485</v>
       </c>
       <c r="M40" t="n">
-        <v>448.5591570030134</v>
+        <v>448.5591570030133</v>
       </c>
       <c r="N40" t="n">
         <v>443.9796355355866</v>
@@ -37716,7 +37716,7 @@
         <v>395.8246771753065</v>
       </c>
       <c r="P40" t="n">
-        <v>318.5600083078065</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q40" t="n">
         <v>143.9970777191504</v>
@@ -37780,7 +37780,7 @@
         <v>282.3190661607202</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380634</v>
       </c>
       <c r="L41" t="n">
         <v>625.7775560664393</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>13.63860328006852</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M42" t="n">
         <v>597.9983376284119</v>
@@ -37871,16 +37871,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>104.8748447253311</v>
+        <v>104.874844725331</v>
       </c>
       <c r="K43" t="n">
-        <v>287.3461619788763</v>
+        <v>287.3461619788762</v>
       </c>
       <c r="L43" t="n">
-        <v>416.7735267390486</v>
+        <v>416.7735267390485</v>
       </c>
       <c r="M43" t="n">
-        <v>448.5591570030134</v>
+        <v>448.5591570030133</v>
       </c>
       <c r="N43" t="n">
         <v>443.9796355355866</v>
@@ -37953,7 +37953,7 @@
         <v>395.8246771753065</v>
       </c>
       <c r="P43" t="n">
-        <v>318.5600083078065</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q43" t="n">
         <v>143.9970777191504</v>
@@ -38020,7 +38020,7 @@
         <v>474.3741250380626</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7775560664401</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M44" t="n">
         <v>728.2874363020583</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>12.5890754270154</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M45" t="n">
         <v>597.9983376284119</v>
@@ -38108,16 +38108,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O45" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P45" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
